--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.022655</v>
+        <v>0.09298733333333332</v>
       </c>
       <c r="H2">
-        <v>0.067965</v>
+        <v>0.278962</v>
       </c>
       <c r="I2">
-        <v>0.002298240504401655</v>
+        <v>0.009366289255637828</v>
       </c>
       <c r="J2">
-        <v>0.002298240504401655</v>
+        <v>0.00936628925563783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>2.82559000459</v>
+        <v>8.509392159811776</v>
       </c>
       <c r="R2">
-        <v>25.43031004131</v>
+        <v>76.58452943830599</v>
       </c>
       <c r="S2">
-        <v>0.002244763075269522</v>
+        <v>0.00907173802297255</v>
       </c>
       <c r="T2">
-        <v>0.002244763075269523</v>
+        <v>0.009071738022972552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.022655</v>
+        <v>0.09298733333333332</v>
       </c>
       <c r="H3">
-        <v>0.067965</v>
+        <v>0.278962</v>
       </c>
       <c r="I3">
-        <v>0.002298240504401655</v>
+        <v>0.009366289255637828</v>
       </c>
       <c r="J3">
-        <v>0.002298240504401655</v>
+        <v>0.00936628925563783</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>0.00305190036</v>
+        <v>0.012526509648</v>
       </c>
       <c r="R3">
-        <v>0.02746710324</v>
+        <v>0.112738586832</v>
       </c>
       <c r="S3">
-        <v>2.424553182309203E-06</v>
+        <v>1.33543279866194E-05</v>
       </c>
       <c r="T3">
-        <v>2.424553182309204E-06</v>
+        <v>1.33543279866194E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.022655</v>
+        <v>0.09298733333333332</v>
       </c>
       <c r="H4">
-        <v>0.067965</v>
+        <v>0.278962</v>
       </c>
       <c r="I4">
-        <v>0.002298240504401655</v>
+        <v>0.009366289255637828</v>
       </c>
       <c r="J4">
-        <v>0.002298240504401655</v>
+        <v>0.00936628925563783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>0.06426268214166667</v>
+        <v>0.2637658550077777</v>
       </c>
       <c r="R4">
-        <v>0.5783641392750001</v>
+        <v>2.373892695069999</v>
       </c>
       <c r="S4">
-        <v>5.105287594982385E-05</v>
+        <v>0.0002811969046786592</v>
       </c>
       <c r="T4">
-        <v>5.105287594982386E-05</v>
+        <v>0.0002811969046786592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.361368</v>
       </c>
       <c r="I5">
-        <v>0.5194455696405421</v>
+        <v>0.5157656456804108</v>
       </c>
       <c r="J5">
-        <v>0.5194455696405422</v>
+        <v>0.5157656456804109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>638.6364728555679</v>
+        <v>468.5796073414426</v>
       </c>
       <c r="R5">
-        <v>5747.728255700112</v>
+        <v>4217.216466072984</v>
       </c>
       <c r="S5">
-        <v>0.5073586650780082</v>
+        <v>0.4995458383954582</v>
       </c>
       <c r="T5">
-        <v>0.5073586650780083</v>
+        <v>0.4995458383954584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.361368</v>
       </c>
       <c r="I6">
-        <v>0.5194455696405421</v>
+        <v>0.5157656456804108</v>
       </c>
       <c r="J6">
-        <v>0.5194455696405422</v>
+        <v>0.5157656456804109</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>0.689786868672</v>
@@ -818,10 +818,10 @@
         <v>6.208081818048</v>
       </c>
       <c r="S6">
-        <v>0.0005479946100054847</v>
+        <v>0.0007353716513186729</v>
       </c>
       <c r="T6">
-        <v>0.0005479946100054848</v>
+        <v>0.0007353716513186732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.361368</v>
       </c>
       <c r="I7">
-        <v>0.5194455696405421</v>
+        <v>0.5157656456804108</v>
       </c>
       <c r="J7">
-        <v>0.5194455696405422</v>
+        <v>0.5157656456804109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
         <v>14.52457454638667</v>
@@ -880,10 +880,10 @@
         <v>130.72117091748</v>
       </c>
       <c r="S7">
-        <v>0.01153890995252842</v>
+        <v>0.01548443563363399</v>
       </c>
       <c r="T7">
-        <v>0.01153890995252842</v>
+        <v>0.015484435633634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>14.14329</v>
       </c>
       <c r="I8">
-        <v>0.4782561898550561</v>
+        <v>0.4748680650639512</v>
       </c>
       <c r="J8">
-        <v>0.4782561898550561</v>
+        <v>0.4748680650639513</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>587.99586340054</v>
+        <v>431.4236384881967</v>
       </c>
       <c r="R8">
-        <v>5291.96277060486</v>
+        <v>3882.81274639377</v>
       </c>
       <c r="S8">
-        <v>0.4671277150714144</v>
+        <v>0.4599344056284636</v>
       </c>
       <c r="T8">
-        <v>0.4671277150714145</v>
+        <v>0.4599344056284637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>14.14329</v>
       </c>
       <c r="I9">
-        <v>0.4782561898550561</v>
+        <v>0.4748680650639512</v>
       </c>
       <c r="J9">
-        <v>0.4782561898550561</v>
+        <v>0.4748680650639513</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
         <v>0.63509029416</v>
@@ -1004,10 +1004,10 @@
         <v>5.71581264744</v>
       </c>
       <c r="S9">
-        <v>0.000504541437178282</v>
+        <v>0.000677060436438921</v>
       </c>
       <c r="T9">
-        <v>0.000504541437178282</v>
+        <v>0.0006770604364389212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>14.14329</v>
       </c>
       <c r="I10">
-        <v>0.4782561898550561</v>
+        <v>0.4748680650639512</v>
       </c>
       <c r="J10">
-        <v>0.4782561898550561</v>
+        <v>0.4748680650639513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
         <v>13.37284999201667</v>
@@ -1066,10 +1066,10 @@
         <v>120.35564992815</v>
       </c>
       <c r="S10">
-        <v>0.01062393334646339</v>
+        <v>0.01425659899904874</v>
       </c>
       <c r="T10">
-        <v>0.01062393334646339</v>
+        <v>0.01425659899904874</v>
       </c>
     </row>
   </sheetData>
